--- a/model_exports/labels/2.0_False_False_4_4.xlsx
+++ b/model_exports/labels/2.0_False_False_4_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C731"/>
+  <dimension ref="A1:C732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-675691648802795522</t>
+          <t>t-793443964900737024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,20 +466,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-1025792018793021440</t>
+          <t>t-933792655041064962</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-1033470726521544704</t>
+          <t>t-497139824780787712</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-494463913853874176</t>
+          <t>t-497141925451792384</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,7 +505,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-494829977268146176</t>
+          <t>t-497161697371893760</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-495010606047821824</t>
+          <t>t-497242468627124224</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,7 +531,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-495017350790668289</t>
+          <t>t-497474058641215489</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-495805012929708033</t>
+          <t>t-497485019451883520</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,11 +557,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-508961106849574912</t>
+          <t>t-561169293573115904</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -570,24 +570,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-509046359354511360</t>
+          <t>t-571473938481602560</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-509083951655174144</t>
+          <t>t-624374054338867201</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -596,72 +596,72 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-509100730960314368</t>
+          <t>t-900499401638129664</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-509131102796414976</t>
+          <t>t-900502092674215936</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-509142523403862017</t>
+          <t>t-1027818664391847936</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-509208349511262208</t>
+          <t>t-1027909740905553920</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-509223264921878528</t>
+          <t>t-498526651912032258</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-509224131880300544</t>
+          <t>t-498546619508609024</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,11 +674,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-629748063494537216</t>
+          <t>t-498600191088271361</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -687,85 +687,85 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-629757802915848193</t>
+          <t>t-498638581536399361</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-900499401638129664</t>
+          <t>t-498641690949713920</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-900502092674215936</t>
+          <t>t-498643083517767681</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-1016827484665499650</t>
+          <t>t-498648204872015872</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-1016832637904695296</t>
+          <t>t-548786999432605696</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-1032695855143370753</t>
+          <t>t-549031298929786880</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-1033108055162941440</t>
+          <t>t-605091889558261760</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -778,50 +778,50 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-498526651912032258</t>
+          <t>t-605138894867161088</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-498546619508609024</t>
+          <t>t-605351836636311552</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-498600191088271361</t>
+          <t>t-641712529677398016</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-498638581536399361</t>
+          <t>t-694942679688437760</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -830,20 +830,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-498641690949713920</t>
+          <t>t-695354495606259712</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-498643083517767681</t>
+          <t>t-696194593700712448</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,7 +856,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-498648204872015872</t>
+          <t>t-707911328145477632</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -869,33 +869,33 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-521738184288251906</t>
+          <t>t-707931200627875840</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-521768704259162112</t>
+          <t>t-708036809603698689</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-601392774370340865</t>
+          <t>t-708038329514790912</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -908,7 +908,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-707911328145477632</t>
+          <t>t-708041345638776832</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,20 +921,20 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-707931200627875840</t>
+          <t>t-708249950530961408</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-708036809603698689</t>
+          <t>t-708273072424554497</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -947,46 +947,46 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-708038329514790912</t>
+          <t>t-708363296160747520</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-708041345638776832</t>
+          <t>t-708384601509601280</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-708249950530961408</t>
+          <t>t-708389352393539585</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-708273072424554497</t>
+          <t>t-708444180087971840</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,85 +999,85 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-708363296160747520</t>
+          <t>t-709190294621835264</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-708384601509601280</t>
+          <t>t-709228058117480449</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-708389352393539585</t>
+          <t>t-709405662791372802</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-708444180087971840</t>
+          <t>t-709892861110657024</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-709190294621835264</t>
+          <t>t-710265095104946176</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-709228058117480449</t>
+          <t>t-738281921046675456</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-709405662791372802</t>
+          <t>t-738404067647455232</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1090,7 +1090,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-709892861110657024</t>
+          <t>t-738429326224302080</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,20 +1103,20 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-710265095104946176</t>
+          <t>t-738429350467543044</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-712108446167011328</t>
+          <t>t-767329938500308992</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,7 +1129,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-719525216439910400</t>
+          <t>t-784233737512890376</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,33 +1142,33 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-719704738913083392</t>
+          <t>t-784234780590080001</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-756508260925075456</t>
+          <t>t-798305189924982784</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-773705145389645824</t>
+          <t>t-826627277026791424</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1415,20 +1415,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-867771334083923968</t>
+          <t>t-894637864561987584</t>
         </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-871116400701706241</t>
+          <t>t-894643508547526657</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1441,7 +1441,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-871834189787791364</t>
+          <t>t-894960674811596800</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,46 +1454,46 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-872075702203559936</t>
+          <t>t-894974152540553216</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-872158265681096708</t>
+          <t>t-894976401597763584</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-887086137789091841</t>
+          <t>t-895262760954736640</t>
         </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-902187406123835394</t>
+          <t>t-909776370410168323</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,46 +1506,46 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-902225607563644928</t>
+          <t>t-910935192742842370</t>
         </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-906729471721570304</t>
+          <t>t-911026776717103105</t>
         </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-960921688975331329</t>
+          <t>t-924109747627929600</t>
         </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-961028171192852485</t>
+          <t>t-1003697920015851520</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1558,50 +1558,50 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-961254369663602688</t>
+          <t>t-1045002319061012482</t>
         </is>
       </c>
       <c r="B87" t="n">
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-970872683402539011</t>
+          <t>t-1045014122092482560</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-977248381662892039</t>
+          <t>t-1045027654121000962</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-977294782048428032</t>
+          <t>t-1045031106968465408</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -1610,24 +1610,24 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-1000042512319483904</t>
+          <t>t-1045065376575475712</t>
         </is>
       </c>
       <c r="B91" t="n">
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-1000115343019343872</t>
+          <t>t-1054831014869123073</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -1636,98 +1636,98 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-1000762573766184961</t>
+          <t>t-1054887299698380800</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-1001659726067830785</t>
+          <t>t-1055927061867585536</t>
         </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-1018804138195513344</t>
+          <t>t-1060177367417655297</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-1018807229267496962</t>
+          <t>t-1060184735106781189</t>
         </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-1018819644377923585</t>
+          <t>t-1060185768549908480</t>
         </is>
       </c>
       <c r="B97" t="n">
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-1018962868379750402</t>
+          <t>t-1060186673835900928</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-1019003195874512897</t>
+          <t>t-1060281450493136896</t>
         </is>
       </c>
       <c r="B99" t="n">
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-1019014466770333697</t>
+          <t>t-1060341719915470848</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,7 +1740,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-1019698120098222080</t>
+          <t>t-1060518882832658433</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1753,33 +1753,33 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-548492147645640704</t>
+          <t>t-1060908480901640192</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-822160325608734720</t>
+          <t>t-513019810272137216</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-822824168110493696</t>
+          <t>t-922536592429993985</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,46 +1792,46 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-823329247884251137</t>
+          <t>t-503508088964800513</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-502103720327671808</t>
+          <t>t-503608708635844608</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-694987975168495617</t>
+          <t>t-538622557084082176</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-762401879758372864</t>
+          <t>t-619895281761423360</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,11 +1844,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-762402279601344512</t>
+          <t>t-637507255093624832</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -1857,24 +1857,24 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-762404827229892608</t>
+          <t>t-637635998185320448</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-863147106038624256</t>
+          <t>t-638007752250396672</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
         <v>1</v>
@@ -1883,20 +1883,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-863168507747454977</t>
+          <t>t-753035409660186624</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-925753092301295616</t>
+          <t>t-958555465675362304</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,11 +1909,11 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-934407049034846208</t>
+          <t>t-1047054739547013120</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C114" t="n">
         <v>1</v>
@@ -1922,59 +1922,59 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-985698935074369536</t>
+          <t>t-1047068713986547712</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-538622557084082176</t>
+          <t>t-1047079117244399617</t>
         </is>
       </c>
       <c r="B116" t="n">
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-606774570255654912</t>
+          <t>t-1047083573738500096</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-739238212518957060</t>
+          <t>t-538858836992331776</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-739379635675271168</t>
+          <t>t-610241505777856512</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1987,7 +1987,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-770981711182237696</t>
+          <t>t-610629417715412992</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,37 +2000,37 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-798458981752573952</t>
+          <t>t-757940960609173505</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-798478057195507713</t>
+          <t>t-979396065278427139</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-798508699044220928</t>
+          <t>t-676063553162379265</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -2039,37 +2039,37 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-798530247192965122</t>
+          <t>t-1016140956322713601</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-799607144802750464</t>
+          <t>t-764358428777078784</t>
         </is>
       </c>
       <c r="B125" t="n">
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-816207402437636096</t>
+          <t>t-626070342885249024</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C126" t="n">
         <v>1</v>
@@ -2078,7 +2078,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-924921911510949890</t>
+          <t>t-878362748232622081</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -2091,50 +2091,50 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-924939317381758976</t>
+          <t>t-927521858815131648</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-925210606361300992</t>
+          <t>t-966707160049766400</t>
         </is>
       </c>
       <c r="B129" t="n">
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-925257914817892352</t>
+          <t>t-967596306297483265</t>
         </is>
       </c>
       <c r="B130" t="n">
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-506695122298212352</t>
+          <t>t-967763105525764097</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2143,24 +2143,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-612750086443917313</t>
+          <t>t-967806729865060352</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-764602141449170944</t>
+          <t>t-967827685333454849</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,11 +2169,11 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-885277243991314432</t>
+          <t>t-968065709459750912</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2182,33 +2182,33 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-885292685086646272</t>
+          <t>t-968790557077262336</t>
         </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-611838090278121474</t>
+          <t>t-533211918698553344</t>
         </is>
       </c>
       <c r="B136" t="n">
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-612267884463673344</t>
+          <t>t-533272996883210240</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,20 +2221,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-612280320520425472</t>
+          <t>t-533345881412878336</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-676063553162379265</t>
+          <t>t-950852460532428800</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,11 +2247,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-756129418616139777</t>
+          <t>t-986144781721104384</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -2260,7 +2260,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-767098705790906368</t>
+          <t>t-536361968840769536</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,7 +2273,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-908760840886767616</t>
+          <t>t-638954151821594624</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,33 +2286,33 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-923950718209359874</t>
+          <t>t-639060084857929728</t>
         </is>
       </c>
       <c r="B143" t="n">
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-923955178688188416</t>
+          <t>t-887680971797131264</t>
         </is>
       </c>
       <c r="B144" t="n">
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-923988304076464128</t>
+          <t>t-887683274591662080</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,20 +2325,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-1007699633349582849</t>
+          <t>t-887690953800253442</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-1007719195323269122</t>
+          <t>t-887715764404449281</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,46 +2351,46 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-1008223489369796609</t>
+          <t>t-887751540173414404</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-1008226683005087744</t>
+          <t>t-887923666507489280</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-1008430016873394176</t>
+          <t>t-887928668626055169</t>
         </is>
       </c>
       <c r="B150" t="n">
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-1008458331160182784</t>
+          <t>t-887976731767918592</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -2403,24 +2403,24 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-1008771230261039104</t>
+          <t>t-888083621801844737</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-1009061662731767808</t>
+          <t>t-948484381987037185</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -2429,7 +2429,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-1009095412505022464</t>
+          <t>t-948486603227451392</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,20 +2442,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-1009284771766140929</t>
+          <t>t-948505461745168384</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-1009553393331986433</t>
+          <t>t-948538940134477824</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -2468,7 +2468,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-623339394989166593</t>
+          <t>t-948573984802689025</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,20 +2481,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-641288611472654336</t>
+          <t>t-955387095228567552</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-697497279213625344</t>
+          <t>t-1047112720837951488</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,7 +2507,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-697558252012355585</t>
+          <t>t-1047367778901090304</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,37 +2520,37 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-966707160049766400</t>
+          <t>t-665687399033397248</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-967596306297483265</t>
+          <t>t-673151835868430336</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-967763105525764097</t>
+          <t>t-673156978059968512</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2559,7 +2559,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-967806729865060352</t>
+          <t>t-673168234577838080</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -2572,24 +2572,24 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-967827685333454849</t>
+          <t>t-918095751158300672</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-968065709459750912</t>
+          <t>t-918096410427486208</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
@@ -2598,7 +2598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-968790557077262336</t>
+          <t>t-918845060900380672</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2611,7 +2611,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-1000477141224558594</t>
+          <t>t-671527403521462276</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,20 +2624,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-921072406919352320</t>
+          <t>t-1044757925414273025</t>
         </is>
       </c>
       <c r="B169" t="n">
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-921102349552275456</t>
+          <t>t-1044770473932816384</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -2650,7 +2650,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-921122924505026560</t>
+          <t>t-560903834407817217</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,37 +2663,37 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-921266455856939008</t>
+          <t>t-879367414802153472</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-921341244332113926</t>
+          <t>t-961384199684001793</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-921699631360176128</t>
+          <t>t-992180383449014272</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -2702,11 +2702,11 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-540815358715002880</t>
+          <t>t-992184677086777345</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -2715,24 +2715,24 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-638954151821594624</t>
+          <t>t-821731492581744642</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-639060084857929728</t>
+          <t>t-821745652803764226</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
@@ -2741,59 +2741,59 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-953935668199215104</t>
+          <t>t-603598228022501376</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-953991296196149248</t>
+          <t>t-590950091256631296</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-1014948759934066688</t>
+          <t>t-986530301030682624</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-540871484869472256</t>
+          <t>t-696837842702446592</t>
         </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-543357722591514624</t>
+          <t>t-607855197835149312</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,7 +2806,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-665687399033397248</t>
+          <t>t-733769545261944833</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -2819,7 +2819,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-673151835868430336</t>
+          <t>t-766291748704423936</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,7 +2832,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-673156978059968512</t>
+          <t>t-782264769742934016</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -2845,11 +2845,11 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-673168234577838080</t>
+          <t>t-948592886060380161</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -2858,11 +2858,11 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-1020278662699134976</t>
+          <t>t-961914631135617025</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C187" t="n">
         <v>0</v>
@@ -2871,76 +2871,76 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-671527403521462276</t>
+          <t>t-979726568175165440</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-833840054363619329</t>
+          <t>t-987005505154535425</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-760723550810628097</t>
+          <t>t-834484332148297728</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-758769139905204224</t>
+          <t>t-913204200187863040</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-622526710358114306</t>
+          <t>t-1003953189820010496</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-624161549528096768</t>
+          <t>t-671936284651196416</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C193" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-863530798334476291</t>
+          <t>t-695269003892228096</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,11 +2962,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-912821640328773633</t>
+          <t>t-733452580194410497</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
         <v>0</v>
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-987722164903251968</t>
+          <t>t-734825704412446721</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,20 +2988,20 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-575206069833629696</t>
+          <t>t-734826990281187328</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-736136204106616832</t>
+          <t>t-876214781744750592</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,63 +3014,63 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-907490044335636480</t>
+          <t>t-1029734360872771584</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-870660332800397312</t>
+          <t>t-1050667252591120384</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-870684149173977089</t>
+          <t>t-657266493659435008</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-906974272832376832</t>
+          <t>t-640924573647503360</t>
         </is>
       </c>
       <c r="B202" t="n">
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-636384018599030785</t>
+          <t>t-641489320088436736</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -3079,24 +3079,24 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-806138760937271296</t>
+          <t>t-721832870604640260</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-865899138726100992</t>
+          <t>t-721856912548044800</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -3105,46 +3105,46 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-913204200187863040</t>
+          <t>t-722873292755828736</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-992484226795823105</t>
+          <t>t-780146894357929984</t>
         </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-671936284651196416</t>
+          <t>t-817334752848056320</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-903173716451909632</t>
+          <t>t-817481338974507010</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,7 +3157,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-694715871097278464</t>
+          <t>t-851625591652720640</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -3170,7 +3170,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-858172777098072064</t>
+          <t>t-852529810760908801</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,24 +3183,24 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-858203574500818944</t>
+          <t>t-852624282018615296</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-858267644507631616</t>
+          <t>t-965598107676430336</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -3209,72 +3209,72 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-858374877706932224</t>
+          <t>t-1036976718718881793</t>
         </is>
       </c>
       <c r="B214" t="n">
         <v>1</v>
       </c>
       <c r="C214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-858419995453292545</t>
+          <t>t-1039643454140231684</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-890798435175063552</t>
+          <t>t-1039968877537456128</t>
         </is>
       </c>
       <c r="B216" t="n">
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-733452580194410497</t>
+          <t>t-620793830413959168</t>
         </is>
       </c>
       <c r="B217" t="n">
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-840282206979444737</t>
+          <t>t-628272138890252288</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-840289139450925056</t>
+          <t>t-636611275666128896</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,20 +3287,20 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-734825704412446721</t>
+          <t>t-750893641632063488</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-734826990281187328</t>
+          <t>t-1029525697382047746</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,7 +3313,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-875514382276538369</t>
+          <t>t-1029541696839798791</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,59 +3326,59 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-899745107900940288</t>
+          <t>t-1029769212384948225</t>
         </is>
       </c>
       <c r="B223" t="n">
         <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-899747204986019844</t>
+          <t>t-533830044200599552</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-1005457960703754240</t>
+          <t>t-534294668842766337</t>
         </is>
       </c>
       <c r="B225" t="n">
         <v>1</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-829201577370075136</t>
+          <t>t-836289804664979457</t>
         </is>
       </c>
       <c r="B226" t="n">
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-829349939947925504</t>
+          <t>t-586160130313625600</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -3391,24 +3391,24 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-829364075721326592</t>
+          <t>t-609714781507993601</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-829412936661815299</t>
+          <t>t-609790992309469184</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -3417,20 +3417,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-992428512744222721</t>
+          <t>t-609807635727151104</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-910451192064614401</t>
+          <t>t-610006959677382657</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,11 +3443,11 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-1050667252591120384</t>
+          <t>t-610466198136954881</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -3456,11 +3456,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-530194842861580288</t>
+          <t>t-660890514741399552</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -3469,11 +3469,11 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-599936713796886528</t>
+          <t>t-661115206525915136</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-715206020902084609</t>
+          <t>t-661147212135727104</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,7 +3495,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-715208550243557376</t>
+          <t>t-661201099085377537</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -3508,37 +3508,37 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-715210823002562560</t>
+          <t>t-707575261483687937</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-715215011178803200</t>
+          <t>t-708952691926548480</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-898515685369946113</t>
+          <t>t-755726869270523904</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3547,7 +3547,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-978842874749046784</t>
+          <t>t-757849369496301569</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,33 +3560,33 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-979067875213234176</t>
+          <t>t-758572772490637312</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-1014570924681687042</t>
+          <t>t-783921439044841474</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-578194227852505088</t>
+          <t>t-784017385615265792</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,11 +3599,11 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-634745305263640576</t>
+          <t>t-784336997477261312</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -3612,7 +3612,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-646027426347155456</t>
+          <t>t-784835805999198208</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,24 +3625,24 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-748353178270199808</t>
+          <t>t-810931684396896256</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-885230061556813824</t>
+          <t>t-811056347773026304</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3651,7 +3651,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-885519574443020288</t>
+          <t>t-811268248448724993</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3664,7 +3664,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-1004794708802048002</t>
+          <t>t-919174352289005568</t>
         </is>
       </c>
       <c r="B249" t="n">
@@ -3677,7 +3677,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-1006674770983817217</t>
+          <t>t-919528265718665216</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,33 +3690,33 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-1030896472881917952</t>
+          <t>t-953220290657492992</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-619624637685755904</t>
+          <t>t-1003317489990848512</t>
         </is>
       </c>
       <c r="B252" t="n">
         <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-655463817921626112</t>
+          <t>t-1003350897521459202</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,7 +3729,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-761355220198756352</t>
+          <t>t-1003359993201025024</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,7 +3742,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-761372714925891586</t>
+          <t>t-1003379549600731139</t>
         </is>
       </c>
       <c r="B255" t="n">
@@ -3755,20 +3755,20 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-1042440160749780992</t>
+          <t>t-1037619174145712128</t>
         </is>
       </c>
       <c r="B256" t="n">
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-609714781507993601</t>
+          <t>t-1045126070540865541</t>
         </is>
       </c>
       <c r="B257" t="n">
@@ -3781,7 +3781,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-609790992309469184</t>
+          <t>t-545590349045833728</t>
         </is>
       </c>
       <c r="B258" t="n">
@@ -3794,11 +3794,11 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-609807635727151104</t>
+          <t>t-670921727346614272</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -3807,50 +3807,50 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-610006959677382657</t>
+          <t>t-901071860456185856</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-610466198136954881</t>
+          <t>t-578199507671904256</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-616575922674769920</t>
+          <t>t-578943021716250624</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-616694572853256192</t>
+          <t>t-649689751415599105</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3859,7 +3859,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-630004911024046080</t>
+          <t>t-561177173151977473</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,7 +3872,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-630051857654751232</t>
+          <t>t-561426613901209600</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,11 +3885,11 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-630833400857919488</t>
+          <t>t-561478083538997248</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
         <v>1</v>
@@ -3898,20 +3898,20 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-660890514741399552</t>
+          <t>t-561531868710207489</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-661115206525915136</t>
+          <t>t-561552888548560899</t>
         </is>
       </c>
       <c r="B268" t="n">
@@ -3924,7 +3924,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-661147212135727104</t>
+          <t>t-561569968660439040</t>
         </is>
       </c>
       <c r="B269" t="n">
@@ -3937,7 +3937,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-661201099085377537</t>
+          <t>t-561719764557774848</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,7 +3950,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-726061174727532544</t>
+          <t>t-561830425656852480</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,20 +3963,20 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-739781293882347520</t>
+          <t>t-562238606618939392</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-802968858214760448</t>
+          <t>t-562243257879773184</t>
         </is>
       </c>
       <c r="B273" t="n">
@@ -3989,7 +3989,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-802970857136123904</t>
+          <t>t-562251699403096064</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,33 +4002,33 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-802986234171768832</t>
+          <t>t-562279318081269760</t>
         </is>
       </c>
       <c r="B275" t="n">
         <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-802996470555279360</t>
+          <t>t-562339945067847680</t>
         </is>
       </c>
       <c r="B276" t="n">
         <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-803023904860151808</t>
+          <t>t-562639830182821889</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,11 +4041,11 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-803063479473176576</t>
+          <t>t-563230595221037057</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -4054,20 +4054,20 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-803165461336555521</t>
+          <t>t-563397372966076416</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-803184972723081216</t>
+          <t>t-570999709160116224</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,20 +4080,20 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-803191488880513024</t>
+          <t>t-571255966727053312</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-803213114628014080</t>
+          <t>t-610512692353310721</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,7 +4106,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-803415757417758721</t>
+          <t>t-610555659969409025</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,11 +4119,11 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-804486553280069633</t>
+          <t>t-772934103733788672</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
         <v>1</v>
@@ -4132,20 +4132,20 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-810931684396896256</t>
+          <t>t-772960588171403264</t>
         </is>
       </c>
       <c r="B285" t="n">
         <v>1</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-811056347773026304</t>
+          <t>t-773538620472979456</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,7 +4158,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-811268248448724993</t>
+          <t>t-773979956305100800</t>
         </is>
       </c>
       <c r="B287" t="n">
@@ -4171,24 +4171,24 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-832931106873819136</t>
+          <t>t-880769643060842496</t>
         </is>
       </c>
       <c r="B288" t="n">
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-841637693608071170</t>
+          <t>t-930445521671589888</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C289" t="n">
         <v>1</v>
@@ -4197,7 +4197,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-986933673697120257</t>
+          <t>t-957965473316069376</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,37 +4210,37 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-1003317489990848512</t>
+          <t>t-571264964683436033</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-1003350897521459202</t>
+          <t>t-576618970368876544</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-1003359993201025024</t>
+          <t>t-783130241195585536</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C293" t="n">
         <v>1</v>
@@ -4249,11 +4249,11 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-1003379549600731139</t>
+          <t>t-783135151601704960</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -4262,11 +4262,11 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-1061999891080232961</t>
+          <t>t-850359691771293697</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C295" t="n">
         <v>0</v>
@@ -4275,11 +4275,11 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-1063070010954932224</t>
+          <t>t-573281947792883712</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C296" t="n">
         <v>0</v>
@@ -4288,11 +4288,11 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-1063412203389370368</t>
+          <t>t-887004122628710405</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -4301,11 +4301,11 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-1063455159370637313</t>
+          <t>t-887017424306008065</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -4314,20 +4314,20 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-1063463128409800704</t>
+          <t>t-575443997050691585</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-1063508201319079936</t>
+          <t>t-579030352271917056</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,24 +4340,24 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-1063552348386140165</t>
+          <t>t-579089809991331841</t>
         </is>
       </c>
       <c r="B301" t="n">
         <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-545590349045833728</t>
+          <t>t-640921153591050240</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
         <v>1</v>
@@ -4366,11 +4366,11 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-772514094360305664</t>
+          <t>t-669944728155090944</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C303" t="n">
         <v>1</v>
@@ -4379,7 +4379,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-549835920762220544</t>
+          <t>t-774740590848188416</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,24 +4392,24 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-983975898042064896</t>
+          <t>t-786005533685710849</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-984343410269151233</t>
+          <t>t-848618580681912320</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" t="n">
         <v>0</v>
@@ -4418,11 +4418,11 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-933464546110529538</t>
+          <t>t-848657153367953411</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C307" t="n">
         <v>1</v>
@@ -4431,7 +4431,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-561177173151977473</t>
+          <t>t-848877245439594496</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,24 +4444,24 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-561426613901209600</t>
+          <t>t-910191038052077569</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-561478083538997248</t>
+          <t>t-912188711261036544</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C310" t="n">
         <v>1</v>
@@ -4470,7 +4470,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-561531868710207489</t>
+          <t>t-912397778260840448</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -4483,20 +4483,20 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-561552888548560899</t>
+          <t>t-912428211253972997</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-561569968660439040</t>
+          <t>t-622598644009668608</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,7 +4509,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-561719764557774848</t>
+          <t>t-639100384343101440</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -4522,20 +4522,20 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-561830425656852480</t>
+          <t>t-1039755728448352257</t>
         </is>
       </c>
       <c r="B315" t="n">
         <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-562238606618939392</t>
+          <t>t-1039888860501688320</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,37 +4548,37 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-562243257879773184</t>
+          <t>t-646070620120215552</t>
         </is>
       </c>
       <c r="B317" t="n">
         <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-562251699403096064</t>
+          <t>t-676228752599314434</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-562279318081269760</t>
+          <t>t-676234421217845248</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" t="n">
         <v>0</v>
@@ -4587,20 +4587,20 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-562339945067847680</t>
+          <t>t-676358315065016322</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-562639830182821889</t>
+          <t>t-660109346915770368</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,11 +4613,11 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-563230595221037057</t>
+          <t>t-660117216885477376</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
@@ -4626,50 +4626,50 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-563397372966076416</t>
+          <t>t-660467638917660672</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-592720340289224705</t>
+          <t>t-667433104118833152</t>
         </is>
       </c>
       <c r="B324" t="n">
         <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-791567733695606784</t>
+          <t>t-919294420465229824</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-668121380727226368</t>
+          <t>t-1041361257410904064</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
         <v>1</v>
@@ -4678,7 +4678,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-788874378666737664</t>
+          <t>t-1041679427464298496</t>
         </is>
       </c>
       <c r="B327" t="n">
@@ -4691,20 +4691,20 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-862378347007025154</t>
+          <t>t-727600217265049600</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-651859489713291264</t>
+          <t>t-753352623630278664</t>
         </is>
       </c>
       <c r="B329" t="n">
@@ -4717,20 +4717,20 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-652540388272553984</t>
+          <t>t-715587588204015616</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-652542102539235329</t>
+          <t>t-922944953696899072</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,20 +4743,20 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-892449776129777665</t>
+          <t>t-922950403255341056</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-892462041277091840</t>
+          <t>t-922959565792083968</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,7 +4769,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-892471980875808773</t>
+          <t>t-677631116958896129</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,63 +4782,63 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-892472490483646466</t>
+          <t>t-1001848606427697153</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-892606487482089472</t>
+          <t>t-692348550416633857</t>
         </is>
       </c>
       <c r="B336" t="n">
         <v>1</v>
       </c>
       <c r="C336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-892633367342088192</t>
+          <t>t-694804362510503936</t>
         </is>
       </c>
       <c r="B337" t="n">
         <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-892700840817045504</t>
+          <t>t-842138233173626880</t>
         </is>
       </c>
       <c r="B338" t="n">
         <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-892731725897281538</t>
+          <t>t-842141623454687232</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4847,20 +4847,20 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-924289234399322112</t>
+          <t>t-842494366820286465</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-599363330575364096</t>
+          <t>t-846003285282697216</t>
         </is>
       </c>
       <c r="B341" t="n">
@@ -4873,7 +4873,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-686862688752807937</t>
+          <t>t-848401927432019970</t>
         </is>
       </c>
       <c r="B342" t="n">
@@ -4886,33 +4886,33 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-831479807821103104</t>
+          <t>t-931989476401926144</t>
         </is>
       </c>
       <c r="B343" t="n">
         <v>1</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-831825002534154241</t>
+          <t>t-981289690258071552</t>
         </is>
       </c>
       <c r="B344" t="n">
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-839501967894405121</t>
+          <t>t-1054497487657021440</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,11 +4925,11 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-839604530048299008</t>
+          <t>t-910172109506273280</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
         <v>0</v>
@@ -4938,7 +4938,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-1027967787312939008</t>
+          <t>t-738154348752953345</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,11 +4951,11 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-1047526401644138497</t>
+          <t>t-738363319199928321</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C348" t="n">
         <v>1</v>
@@ -4964,33 +4964,33 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-575443997050691585</t>
+          <t>t-738396040357761024</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-601384798897115138</t>
+          <t>t-738456086156443648</t>
         </is>
       </c>
       <c r="B350" t="n">
         <v>1</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-603639937368469504</t>
+          <t>t-738474348290277376</t>
         </is>
       </c>
       <c r="B351" t="n">
@@ -5003,7 +5003,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-604106567907057664</t>
+          <t>t-753754552936136704</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,7 +5016,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-605045307844337664</t>
+          <t>t-756636337130774528</t>
         </is>
       </c>
       <c r="B353" t="n">
@@ -5029,11 +5029,11 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-609930400341725185</t>
+          <t>t-996559091932770305</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -5042,11 +5042,11 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-609937116462604289</t>
+          <t>t-1016293496980955136</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -5055,37 +5055,37 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-786005533685710849</t>
+          <t>t-765596657039708160</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-975332165528576000</t>
+          <t>t-766010493563568129</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-992231007083421698</t>
+          <t>t-768829814824247296</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -5094,37 +5094,37 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-992892560405250048</t>
+          <t>t-768861970195881986</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-610843183715463168</t>
+          <t>t-768886684955975680</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-880261784304631810</t>
+          <t>t-769194684576960513</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C361" t="n">
         <v>1</v>
@@ -5133,20 +5133,20 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-1049990926406492160</t>
+          <t>t-779066799077851136</t>
         </is>
       </c>
       <c r="B362" t="n">
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-646070620120215552</t>
+          <t>t-804685877838565376</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,20 +5159,20 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-719978473687633922</t>
+          <t>t-796435007673946112</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-646419866795118592</t>
+          <t>t-796529318373584896</t>
         </is>
       </c>
       <c r="B365" t="n">
@@ -5185,20 +5185,20 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-648598850530226176</t>
+          <t>t-796701113995104256</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-762366384747589634</t>
+          <t>t-796745584795389952</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,7 +5211,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-762414153185173504</t>
+          <t>t-805294233020231681</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,7 +5224,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-762454271832928257</t>
+          <t>t-805399384150147076</t>
         </is>
       </c>
       <c r="B369" t="n">
@@ -5237,24 +5237,24 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1027575306226475008</t>
+          <t>t-1049947970664304640</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-727600217265049600</t>
+          <t>t-817388602090987520</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -5263,11 +5263,11 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-794366500865982467</t>
+          <t>t-847243626082050048</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
         <v>0</v>
@@ -5276,24 +5276,24 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-863149830931185664</t>
+          <t>t-847412512383356932</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-725708603060031489</t>
+          <t>t-847416452424519680</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C374" t="n">
         <v>0</v>
@@ -5302,11 +5302,11 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-734458703231885312</t>
+          <t>t-847625871712112640</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C375" t="n">
         <v>0</v>
@@ -5315,7 +5315,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-829844333205413888</t>
+          <t>t-847873968065433600</t>
         </is>
       </c>
       <c r="B376" t="n">
@@ -5328,7 +5328,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-751165986527674368</t>
+          <t>t-848285144846921728</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,59 +5341,59 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-751167208219406336</t>
+          <t>t-848349687950266373</t>
         </is>
       </c>
       <c r="B378" t="n">
         <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-1046763431649574912</t>
+          <t>t-848632201470259200</t>
         </is>
       </c>
       <c r="B379" t="n">
         <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-772460103026868224</t>
+          <t>t-848638922687221760</t>
         </is>
       </c>
       <c r="B380" t="n">
         <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-785262083638169600</t>
+          <t>t-848870222769606658</t>
         </is>
       </c>
       <c r="B381" t="n">
         <v>1</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-805294233020231681</t>
+          <t>t-848971430775709697</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,7 +5406,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-805399384150147076</t>
+          <t>t-849083151532032000</t>
         </is>
       </c>
       <c r="B383" t="n">
@@ -5419,59 +5419,59 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-814469186323939328</t>
+          <t>t-849228504088670208</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-885945201105219584</t>
+          <t>t-841401006797815808</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-885947457330438145</t>
+          <t>t-860847907427233792</t>
         </is>
       </c>
       <c r="B386" t="n">
         <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-841401006797815808</t>
+          <t>t-860879398387556352</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-860847907427233792</t>
+          <t>t-881979226697740288</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5484,7 +5484,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-884885746984681473</t>
+          <t>t-882704580865404928</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,20 +5497,20 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-884938114657128448</t>
+          <t>t-894457279076020224</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-901254745888878592</t>
+          <t>t-961482044650930177</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -5523,59 +5523,59 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-902559120888184833</t>
+          <t>t-974764041968132096</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-903611928827674624</t>
+          <t>t-974840717116956673</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-881979226697740288</t>
+          <t>t-519240969838166016</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-1026649986782650369</t>
+          <t>t-616316575658807296</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-1052284815779622917</t>
+          <t>t-898367654507032576</t>
         </is>
       </c>
       <c r="B396" t="n">
@@ -5588,24 +5588,24 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-1052565742183272454</t>
+          <t>t-1016375311733284864</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-1052712831517450241</t>
+          <t>t-1040961500553388033</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C398" t="n">
         <v>1</v>
@@ -5614,33 +5614,33 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-955145334002417666</t>
+          <t>t-1027253242261069824</t>
         </is>
       </c>
       <c r="B399" t="n">
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-961482044650930177</t>
+          <t>t-521063203389050882</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-616316575658807296</t>
+          <t>t-521358835361927168</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,7 +5653,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-702986489890775040</t>
+          <t>t-652079150321270784</t>
         </is>
       </c>
       <c r="B402" t="n">
@@ -5666,20 +5666,20 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-703410728628305920</t>
+          <t>t-652171720393101312</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-708340740556980225</t>
+          <t>t-953177789628407808</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,59 +5692,59 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-898367654507032576</t>
+          <t>t-953520796361744384</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-970747848747778048</t>
+          <t>t-519900708980948992</t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-1016375311733284864</t>
+          <t>t-699600707318587392</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-738823278840664064</t>
+          <t>t-642554131211755524</t>
         </is>
       </c>
       <c r="B408" t="n">
         <v>0</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-737657149174730753</t>
+          <t>t-782797451639914497</t>
         </is>
       </c>
       <c r="B409" t="n">
@@ -5757,11 +5757,11 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-737657922885423104</t>
+          <t>t-909677183328751616</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C410" t="n">
         <v>1</v>
@@ -5770,20 +5770,20 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-738291666285694976</t>
+          <t>t-529740815221153793</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-782797044729741312</t>
+          <t>t-530728667891380225</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -5796,11 +5796,11 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-615884908238651393</t>
+          <t>t-738708820491259904</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
         <v>1</v>
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-782797451639914497</t>
+          <t>t-738754856811417601</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,7 +5822,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-884450764084662272</t>
+          <t>t-738830571351224320</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,7 +5835,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-884455668140445696</t>
+          <t>t-739181708906467329</t>
         </is>
       </c>
       <c r="B416" t="n">
@@ -5848,33 +5848,33 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-884457897043927040</t>
+          <t>t-875802481292439553</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-884462539458977792</t>
+          <t>t-984048304144166912</t>
         </is>
       </c>
       <c r="B418" t="n">
         <v>1</v>
       </c>
       <c r="C418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-957342329127473158</t>
+          <t>t-984354039067529216</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -5887,7 +5887,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-580349296182198273</t>
+          <t>t-1051891605035241474</t>
         </is>
       </c>
       <c r="B420" t="n">
@@ -5900,7 +5900,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-957544710825967616</t>
+          <t>t-538959622858883072</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5933,7 +5933,7 @@
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -6030,14 +6030,14 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-591871892283334656</t>
+          <t>t-603463396365836289</t>
         </is>
       </c>
       <c r="B431" t="n">
         <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434">
@@ -6095,7 +6095,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-783909177920020480</t>
+          <t>t-636255173036388352</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,37 +6108,37 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-784305124269182976</t>
+          <t>t-677902230650003457</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-950088164777123841</t>
+          <t>t-744549085244334080</t>
         </is>
       </c>
       <c r="B438" t="n">
         <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-950818741209747456</t>
+          <t>t-744630770116005888</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C439" t="n">
         <v>0</v>
@@ -6147,11 +6147,11 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-951169520584024064</t>
+          <t>t-745023417267724289</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C440" t="n">
         <v>0</v>
@@ -6160,20 +6160,20 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-951600654866317313</t>
+          <t>t-745961763473080321</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-951687956045156352</t>
+          <t>t-746461142604668928</t>
         </is>
       </c>
       <c r="B442" t="n">
@@ -6186,7 +6186,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-987423120817643520</t>
+          <t>t-762281733672820736</t>
         </is>
       </c>
       <c r="B443" t="n">
@@ -6199,20 +6199,20 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-649269312625209344</t>
+          <t>t-769394896344064001</t>
         </is>
       </c>
       <c r="B444" t="n">
         <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-740095983602782208</t>
+          <t>t-783909177920020480</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,20 +6225,20 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-750337802257129474</t>
+          <t>t-784305124269182976</t>
         </is>
       </c>
       <c r="B446" t="n">
         <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-764828802384007168</t>
+          <t>t-806453539409162240</t>
         </is>
       </c>
       <c r="B447" t="n">
@@ -6251,7 +6251,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-816609916018454528</t>
+          <t>t-806476961451216896</t>
         </is>
       </c>
       <c r="B448" t="n">
@@ -6264,24 +6264,24 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-560682074529484800</t>
+          <t>t-836980367781396480</t>
         </is>
       </c>
       <c r="B449" t="n">
         <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-669507403621277696</t>
+          <t>t-884135398854635520</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
         <v>0</v>
@@ -6290,7 +6290,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-669900887607898113</t>
+          <t>t-884163532958441472</t>
         </is>
       </c>
       <c r="B451" t="n">
@@ -6303,24 +6303,24 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-699529516008476673</t>
+          <t>t-884173621224239104</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-832880826807418880</t>
+          <t>t-884176826679136256</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
         <v>1</v>
@@ -6329,7 +6329,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-801715561692626944</t>
+          <t>t-884179431887167489</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,24 +6342,24 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-801720307002339328</t>
+          <t>t-884282035384320001</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-962370594363838464</t>
+          <t>t-884290062598451200</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
         <v>0</v>
@@ -6368,11 +6368,11 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-1048216558785449986</t>
+          <t>t-884310032518664194</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
         <v>0</v>
@@ -6381,11 +6381,11 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-657116242692734976</t>
+          <t>t-884325033430200320</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
         <v>0</v>
@@ -6394,7 +6394,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-575707186204180480</t>
+          <t>t-925333063336321024</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,7 +6407,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-580368693688999936</t>
+          <t>t-965524750264135680</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,33 +6420,33 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-1024201138277638144</t>
+          <t>t-966320851678318593</t>
         </is>
       </c>
       <c r="B461" t="n">
         <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-583674889480962049</t>
+          <t>t-967380419707535360</t>
         </is>
       </c>
       <c r="B462" t="n">
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-595251975568109568</t>
+          <t>t-1008363588552151040</t>
         </is>
       </c>
       <c r="B463" t="n">
@@ -6459,50 +6459,50 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-895521975434530816</t>
+          <t>t-1048194085624995840</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-895525136580923394</t>
+          <t>t-1052528388341149696</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-720146113794183169</t>
+          <t>t-580823195311276032</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-743905323543629825</t>
+          <t>t-699529516008476673</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
         <v>0</v>
@@ -6511,7 +6511,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-1024752032350195712</t>
+          <t>t-1057351782484115458</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,24 +6524,24 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-601387987851677696</t>
+          <t>t-657116242692734976</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-601436583682703361</t>
+          <t>t-697699936171909120</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
         <v>1</v>
@@ -6550,7 +6550,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-605693478799065088</t>
+          <t>t-697706009293410304</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -6563,7 +6563,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-605727874348384256</t>
+          <t>t-698055021934571520</t>
         </is>
       </c>
       <c r="B472" t="n">
@@ -6576,7 +6576,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-605802486604046337</t>
+          <t>t-698056879210102784</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,7 +6589,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-605842449722777601</t>
+          <t>t-698065167305805824</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,7 +6602,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-605899935117017088</t>
+          <t>t-698086763601006593</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,7 +6615,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-608689054549471232</t>
+          <t>t-698453860554244096</t>
         </is>
       </c>
       <c r="B476" t="n">
@@ -6628,11 +6628,11 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-873880943819460609</t>
+          <t>t-999158779580121089</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C477" t="n">
         <v>0</v>
@@ -6641,85 +6641,85 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-874034580747104259</t>
+          <t>t-670699425879191552</t>
         </is>
       </c>
       <c r="B478" t="n">
         <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-874852269765931008</t>
+          <t>t-888068991020929025</t>
         </is>
       </c>
       <c r="B479" t="n">
         <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-615666964451606528</t>
+          <t>t-865160167155003392</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-615728570888003584</t>
+          <t>t-869260706524397568</t>
         </is>
       </c>
       <c r="B481" t="n">
         <v>1</v>
       </c>
       <c r="C481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-997420355043102720</t>
+          <t>t-1006487935733174274</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-1017675550318612480</t>
+          <t>t-580746776262545409</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-619208680349765633</t>
+          <t>t-837336632667877376</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,7 +6732,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-900842879182131201</t>
+          <t>t-660085012306395136</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,7 +6745,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-1013800752567996416</t>
+          <t>t-850396935152422913</t>
         </is>
       </c>
       <c r="B486" t="n">
@@ -6758,24 +6758,24 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-1038016191711928321</t>
+          <t>t-862635910306856964</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-1038359113791680512</t>
+          <t>t-862992827487309824</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
         <v>1</v>
@@ -6784,11 +6784,11 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-1006630570447777793</t>
+          <t>t-863003997464080384</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C489" t="n">
         <v>1</v>
@@ -6797,7 +6797,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-661463139213565952</t>
+          <t>t-863121747360571392</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,33 +6810,33 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-801672831046221825</t>
+          <t>t-993886363249455104</t>
         </is>
       </c>
       <c r="B491" t="n">
         <v>0</v>
       </c>
       <c r="C491" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-801706221803806720</t>
+          <t>t-586494775089442816</t>
         </is>
       </c>
       <c r="B492" t="n">
         <v>0</v>
       </c>
       <c r="C492" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-953295637679951872</t>
+          <t>t-957917970390450177</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,37 +6849,37 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-953311292475011072</t>
+          <t>t-962759977394991104</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-1056610127975997440</t>
+          <t>t-590431507967299584</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-663799425475731457</t>
+          <t>t-743692015158726656</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C496" t="n">
         <v>1</v>
@@ -6888,63 +6888,63 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-723039191961985026</t>
+          <t>t-743726128003588096</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-666556746308198401</t>
+          <t>t-612970627083968512</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-808055620339384324</t>
+          <t>t-690751741676142592</t>
         </is>
       </c>
       <c r="B499" t="n">
         <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-681422251338674177</t>
+          <t>t-746801790117646336</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-695507166833184769</t>
+          <t>t-746821154074206210</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C501" t="n">
         <v>1</v>
@@ -6953,46 +6953,46 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-704826129178370050</t>
+          <t>t-892583343426072576</t>
         </is>
       </c>
       <c r="B502" t="n">
         <v>0</v>
       </c>
       <c r="C502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-852243165302198273</t>
+          <t>t-895521975434530816</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-728492484175745024</t>
+          <t>t-895525136580923394</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-736808558038265858</t>
+          <t>t-593397061376147456</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,20 +7005,20 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-736607968997838848</t>
+          <t>t-877183876254269441</t>
         </is>
       </c>
       <c r="B506" t="n">
         <v>1</v>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-737558350011867138</t>
+          <t>t-877213422538158080</t>
         </is>
       </c>
       <c r="B507" t="n">
@@ -7031,46 +7031,46 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-738417908926320643</t>
+          <t>t-1024752032350195712</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-738664460173381632</t>
+          <t>t-601387987851677696</t>
         </is>
       </c>
       <c r="B509" t="n">
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-751418791951790080</t>
+          <t>t-601436583682703361</t>
         </is>
       </c>
       <c r="B510" t="n">
         <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-737563920496349185</t>
+          <t>t-968152808062160896</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,59 +7083,59 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-955134939699310592</t>
+          <t>t-609461898141147136</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-745170424456052736</t>
+          <t>t-1019348620489969664</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-738790953792720896</t>
+          <t>t-618340855657721856</t>
         </is>
       </c>
       <c r="B514" t="n">
         <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-739230360207261700</t>
+          <t>t-619208680349765633</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-740264154712449024</t>
+          <t>t-631869539597336576</t>
         </is>
       </c>
       <c r="B516" t="n">
@@ -7148,20 +7148,20 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-860462128263811072</t>
+          <t>t-632875946828255232</t>
         </is>
       </c>
       <c r="B517" t="n">
         <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-740517137236647936</t>
+          <t>t-900842879182131201</t>
         </is>
       </c>
       <c r="B518" t="n">
@@ -7174,37 +7174,37 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-741525012784553985</t>
+          <t>t-656425382145597440</t>
         </is>
       </c>
       <c r="B519" t="n">
         <v>1</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-743384229497679872</t>
+          <t>t-953295637679951872</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-743816866171326464</t>
+          <t>t-953311292475011072</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C521" t="n">
         <v>1</v>
@@ -7213,33 +7213,33 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-755694559401762816</t>
+          <t>t-723039191961985026</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C522" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-765679686244454400</t>
+          <t>t-908615579501780992</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-792319235351535616</t>
+          <t>t-910016271554576384</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -7252,7 +7252,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-819911710349922305</t>
+          <t>t-974126323248586752</t>
         </is>
       </c>
       <c r="B525" t="n">
@@ -7265,11 +7265,11 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-862319925528023040</t>
+          <t>t-1004612435792232448</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C526" t="n">
         <v>0</v>
@@ -7278,7 +7278,7 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-862320640791121920</t>
+          <t>t-1005827335977885696</t>
         </is>
       </c>
       <c r="B527" t="n">
@@ -7291,20 +7291,20 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-867414851802599424</t>
+          <t>t-674905913438769153</t>
         </is>
       </c>
       <c r="B528" t="n">
         <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-892499939137335296</t>
+          <t>t-687198236776464384</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,7 +7317,7 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-938446444700237824</t>
+          <t>t-698444957653278721</t>
         </is>
       </c>
       <c r="B530" t="n">
@@ -7330,59 +7330,59 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-949999091047477249</t>
+          <t>t-701060752074010624</t>
         </is>
       </c>
       <c r="B531" t="n">
         <v>1</v>
       </c>
       <c r="C531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-1043100641466490881</t>
+          <t>t-829095437466533888</t>
         </is>
       </c>
       <c r="B532" t="n">
         <v>1</v>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-1043534562775781377</t>
+          <t>t-948994988666425345</t>
         </is>
       </c>
       <c r="B533" t="n">
         <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-1051774073523634182</t>
+          <t>t-949010413437497347</t>
         </is>
       </c>
       <c r="B534" t="n">
         <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1052071039923044352</t>
+          <t>t-949151246799142913</t>
         </is>
       </c>
       <c r="B535" t="n">
@@ -7395,11 +7395,11 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1052145118726238209</t>
+          <t>t-950677684811640833</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C536" t="n">
         <v>0</v>
@@ -7408,33 +7408,33 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-1052182549513035776</t>
+          <t>t-703191098403872769</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-494327833263874048</t>
+          <t>t-703191473269780480</t>
         </is>
       </c>
       <c r="B538" t="n">
         <v>1</v>
       </c>
       <c r="C538" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-673149443068309504</t>
+          <t>t-703218090671214592</t>
         </is>
       </c>
       <c r="B539" t="n">
@@ -7447,7 +7447,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-678069780989870080</t>
+          <t>t-703248568765779969</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,11 +7460,11 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-931841011340296192</t>
+          <t>t-703357904250757120</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
         <v>0</v>
@@ -7473,7 +7473,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-956368490293800960</t>
+          <t>t-703380366254612480</t>
         </is>
       </c>
       <c r="B542" t="n">
@@ -7486,20 +7486,20 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-956387965382610945</t>
+          <t>t-703605156500381696</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-498746062224375809</t>
+          <t>t-835605594534981633</t>
         </is>
       </c>
       <c r="B544" t="n">
@@ -7512,11 +7512,11 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-499104320717996032</t>
+          <t>t-835708598772727808</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
         <v>1</v>
@@ -7525,24 +7525,24 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-500549350234554368</t>
+          <t>t-720951969716809728</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-510001639617351681</t>
+          <t>t-979633616404844544</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
         <v>1</v>
@@ -7551,11 +7551,11 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-537546537975685120</t>
+          <t>t-751418791951790080</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C548" t="n">
         <v>0</v>
@@ -7564,7 +7564,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-537578272348205056</t>
+          <t>t-957930793187397632</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -7577,7 +7577,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-537578565139582976</t>
+          <t>t-933719239126642689</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,7 +7590,7 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-537896255347646465</t>
+          <t>t-740042390703099904</t>
         </is>
       </c>
       <c r="B551" t="n">
@@ -7603,20 +7603,20 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-550997963590610944</t>
+          <t>t-740196910300962816</t>
         </is>
       </c>
       <c r="B552" t="n">
         <v>1</v>
       </c>
       <c r="C552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-551059868657152002</t>
+          <t>t-741525012784553985</t>
         </is>
       </c>
       <c r="B553" t="n">
@@ -7629,7 +7629,7 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-551164779646038017</t>
+          <t>t-743384229497679872</t>
         </is>
       </c>
       <c r="B554" t="n">
@@ -7642,7 +7642,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-552328482282553344</t>
+          <t>t-746386418465914880</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,24 +7655,24 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-552381413899898881</t>
+          <t>t-753159226390962176</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-552754433155928064</t>
+          <t>t-760420119554076674</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C557" t="n">
         <v>0</v>
@@ -7681,7 +7681,7 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-552860760968138752</t>
+          <t>t-766238666905747456</t>
         </is>
       </c>
       <c r="B558" t="n">
@@ -7694,7 +7694,7 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-552960294360977408</t>
+          <t>t-854059785049788419</t>
         </is>
       </c>
       <c r="B559" t="n">
@@ -7707,98 +7707,98 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-553046169975148544</t>
+          <t>t-867414851802599424</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-553111267569713154</t>
+          <t>t-991783836206936065</t>
         </is>
       </c>
       <c r="B561" t="n">
         <v>0</v>
       </c>
       <c r="C561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-553535305601392640</t>
+          <t>t-1002130830792241153</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-556228745443282944</t>
+          <t>t-887201249715789824</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-557932086149918722</t>
+          <t>t-894025914476105728</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-558466774392266752</t>
+          <t>t-904852554470883329</t>
         </is>
       </c>
       <c r="B565" t="n">
         <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-558501767688642560</t>
+          <t>t-981841496902197248</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-558892309320724482</t>
+          <t>t-988323500330045442</t>
         </is>
       </c>
       <c r="B567" t="n">
@@ -7811,24 +7811,24 @@
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-559263075183104000</t>
+          <t>t-992783370114433024</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-559573400780156928</t>
+          <t>t-1028077071480832000</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C569" t="n">
         <v>0</v>
@@ -7837,24 +7837,24 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-579789832131575808</t>
+          <t>t-1043053295298899968</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-580874616324943872</t>
+          <t>t-1043072721595375616</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C571" t="n">
         <v>0</v>
@@ -7863,11 +7863,11 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-616630261191716864</t>
+          <t>t-1043145723687129090</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C572" t="n">
         <v>0</v>
@@ -7876,7 +7876,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-658803849289990144</t>
+          <t>t-1043100641466490881</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,11 +7889,11 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-659014102774325248</t>
+          <t>t-1043534562775781377</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C574" t="n">
         <v>0</v>
@@ -7902,7 +7902,7 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-695965752088723456</t>
+          <t>t-494327833263874048</t>
         </is>
       </c>
       <c r="B575" t="n">
@@ -7915,11 +7915,11 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-695968588012752896</t>
+          <t>t-675498810152325120</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C576" t="n">
         <v>1</v>
@@ -7928,33 +7928,33 @@
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-815395045314560000</t>
+          <t>t-786169556586770432</t>
         </is>
       </c>
       <c r="B577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-815855888129028096</t>
+          <t>t-674391856298385408</t>
         </is>
       </c>
       <c r="B578" t="n">
         <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-815865821570289668</t>
+          <t>t-674458539629219844</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,7 +7967,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-815882427159678976</t>
+          <t>t-676377478168862721</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,24 +7980,24 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-815960345336545280</t>
+          <t>t-677293991713308673</t>
         </is>
       </c>
       <c r="B581" t="n">
         <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-816280699388841984</t>
+          <t>t-678077110070566912</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C582" t="n">
         <v>0</v>
@@ -8006,11 +8006,11 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-912643743894949888</t>
+          <t>t-686071224749821953</t>
         </is>
       </c>
       <c r="B583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C583" t="n">
         <v>1</v>
@@ -8019,37 +8019,37 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-947798399184785408</t>
+          <t>t-697436431816355840</t>
         </is>
       </c>
       <c r="B584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-947806740518641664</t>
+          <t>t-697627864380809216</t>
         </is>
       </c>
       <c r="B585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-947808691230822401</t>
+          <t>t-698371050527023104</t>
         </is>
       </c>
       <c r="B586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C586" t="n">
         <v>1</v>
@@ -8058,20 +8058,20 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-947833275673747457</t>
+          <t>t-698770244375093249</t>
         </is>
       </c>
       <c r="B587" t="n">
         <v>1</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-948185680043155456</t>
+          <t>t-711861360414433281</t>
         </is>
       </c>
       <c r="B588" t="n">
@@ -8084,20 +8084,20 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-948407157803728896</t>
+          <t>t-711871478451417088</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-948721205443358720</t>
+          <t>t-711899328244113408</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,50 +8110,50 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-948800260238815232</t>
+          <t>t-712616490994892801</t>
         </is>
       </c>
       <c r="B591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-948884291743870976</t>
+          <t>t-790900222368976896</t>
         </is>
       </c>
       <c r="B592" t="n">
         <v>1</v>
       </c>
       <c r="C592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-1031392016255647744</t>
+          <t>t-790909371781746688</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-1061409798053224448</t>
+          <t>t-791594802844434434</t>
         </is>
       </c>
       <c r="B594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C594" t="n">
         <v>1</v>
@@ -8162,11 +8162,11 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-1061535382406348800</t>
+          <t>t-835120033412038656</t>
         </is>
       </c>
       <c r="B595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C595" t="n">
         <v>0</v>
@@ -8175,20 +8175,20 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-499804424827457538</t>
+          <t>t-879622376966635521</t>
         </is>
       </c>
       <c r="B596" t="n">
         <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-499826521846972416</t>
+          <t>t-879625739317854209</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,11 +8201,11 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-520490218210594817</t>
+          <t>t-879987948296568834</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C598" t="n">
         <v>1</v>
@@ -8214,11 +8214,11 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-632870673115774976</t>
+          <t>t-914672240901287936</t>
         </is>
       </c>
       <c r="B599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C599" t="n">
         <v>1</v>
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-728392912636149760</t>
+          <t>t-940565575226372102</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,59 +8240,59 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-772650812623290373</t>
+          <t>t-940637216757477377</t>
         </is>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-772781827224285184</t>
+          <t>t-947798399184785408</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-773074057805737984</t>
+          <t>t-947806740518641664</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-869476060991152129</t>
+          <t>t-947808691230822401</t>
         </is>
       </c>
       <c r="B604" t="n">
         <v>1</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-914680114595602432</t>
+          <t>t-947833275673747457</t>
         </is>
       </c>
       <c r="B605" t="n">
@@ -8305,37 +8305,37 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-922122902136172545</t>
+          <t>t-948185680043155456</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-965395788435046400</t>
+          <t>t-948407157803728896</t>
         </is>
       </c>
       <c r="B607" t="n">
         <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-1015491573092528128</t>
+          <t>t-948721205443358720</t>
         </is>
       </c>
       <c r="B608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C608" t="n">
         <v>0</v>
@@ -8344,33 +8344,33 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-527780384159703040</t>
+          <t>t-948800260238815232</t>
         </is>
       </c>
       <c r="B609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-583500409458688000</t>
+          <t>t-948884291743870976</t>
         </is>
       </c>
       <c r="B610" t="n">
         <v>1</v>
       </c>
       <c r="C610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-583500450495795200</t>
+          <t>t-520490218210594817</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,33 +8383,33 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-583501741481594881</t>
+          <t>t-871870603011043328</t>
         </is>
       </c>
       <c r="B612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-583504251168497664</t>
+          <t>t-872126007855038464</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C613" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-583504875067056129</t>
+          <t>t-916572694472155137</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,11 +8422,11 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-584246834618474497</t>
+          <t>t-976046458834116609</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C615" t="n">
         <v>1</v>
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-585340196557692928</t>
+          <t>t-519137345065320448</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,11 +8448,11 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-718078465698881536</t>
+          <t>t-580217985706528769</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C617" t="n">
         <v>1</v>
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-718738885862232064</t>
+          <t>t-669092226840981504</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-718790966774083584</t>
+          <t>t-685773216275533824</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,11 +8487,11 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-736424760335179778</t>
+          <t>t-721601854761619457</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C620" t="n">
         <v>1</v>
@@ -8500,11 +8500,11 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-764804167068024832</t>
+          <t>t-721697193174798336</t>
         </is>
       </c>
       <c r="B621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C621" t="n">
         <v>1</v>
@@ -8513,7 +8513,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-796319752176009216</t>
+          <t>t-733931111152123906</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,7 +8526,7 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-796346157156864001</t>
+          <t>t-734714075603718144</t>
         </is>
       </c>
       <c r="B623" t="n">
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-796369433241403393</t>
+          <t>t-734767651981905921</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,7 +8552,7 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-796693709639168001</t>
+          <t>t-735043937040093185</t>
         </is>
       </c>
       <c r="B625" t="n">
@@ -8565,7 +8565,7 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-797722245741223936</t>
+          <t>t-749065341586726912</t>
         </is>
       </c>
       <c r="B626" t="n">
@@ -8578,20 +8578,20 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-797729987348418561</t>
+          <t>t-807384780572459008</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-797771440128860162</t>
+          <t>t-834984646416842753</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,7 +8604,7 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-797771478930366464</t>
+          <t>t-834986851718946816</t>
         </is>
       </c>
       <c r="B629" t="n">
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-797792110535528448</t>
+          <t>t-835051963096121344</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,11 +8630,11 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-798105876364029953</t>
+          <t>t-839825336552468480</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C631" t="n">
         <v>1</v>
@@ -8643,33 +8643,33 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-836823983353909248</t>
+          <t>t-868766918035079168</t>
         </is>
       </c>
       <c r="B632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-857545859868708865</t>
+          <t>t-965199790966415360</t>
         </is>
       </c>
       <c r="B633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-868766918035079168</t>
+          <t>t-987647411144220672</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-870517868831449088</t>
+          <t>t-961643380684959749</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,24 +8695,24 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-880004628884013057</t>
+          <t>t-1062500554134310912</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-912888084739641344</t>
+          <t>t-538727466139803648</t>
         </is>
       </c>
       <c r="B637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C637" t="n">
         <v>1</v>
@@ -8721,20 +8721,20 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-913276391470227456</t>
+          <t>t-817345259164221440</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-931079635575586816</t>
+          <t>t-846329507103436800</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-931432910795653120</t>
+          <t>t-1032843605826621440</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,20 +8760,20 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-932133115748696064</t>
+          <t>t-902843730587115520</t>
         </is>
       </c>
       <c r="B641" t="n">
         <v>0</v>
       </c>
       <c r="C641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-932454853443334144</t>
+          <t>t-523431319012139009</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-976030387188137984</t>
+          <t>t-757366725759242240</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-976030855033319425</t>
+          <t>t-757494302339571712</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,7 +8812,7 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-976037405776990208</t>
+          <t>t-757771911346749441</t>
         </is>
       </c>
       <c r="B645" t="n">
@@ -8825,24 +8825,24 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-1024894521568448513</t>
+          <t>t-757882635976790016</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-586217765666623488</t>
+          <t>t-758521629890650113</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C647" t="n">
         <v>1</v>
@@ -8851,11 +8851,11 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-961643380684959749</t>
+          <t>t-527311291191263232</t>
         </is>
       </c>
       <c r="B648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C648" t="n">
         <v>1</v>
@@ -8864,11 +8864,11 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-528210205746532352</t>
+          <t>t-829520315575177217</t>
         </is>
       </c>
       <c r="B649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C649" t="n">
         <v>1</v>
@@ -8877,11 +8877,11 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-528777132097298433</t>
+          <t>t-830684745323327488</t>
         </is>
       </c>
       <c r="B650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C650" t="n">
         <v>1</v>
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-528826156708278272</t>
+          <t>t-919610638351003649</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-528877062564503552</t>
+          <t>t-919611818183503872</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-529071458085900288</t>
+          <t>t-919614704967757825</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-529085805034094593</t>
+          <t>t-919712337681985537</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-529166911674671104</t>
+          <t>t-919728404907167744</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-529236028171620353</t>
+          <t>t-919751765871886336</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,20 +8968,20 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-529319778377166848</t>
+          <t>t-919766847666274304</t>
         </is>
       </c>
       <c r="B657" t="n">
         <v>1</v>
       </c>
       <c r="C657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-530135697877766146</t>
+          <t>t-919943414766063617</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-530218899833241600</t>
+          <t>t-920179252292739072</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,7 +9007,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-592295516517502976</t>
+          <t>t-920416544319926272</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,7 +9020,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-621352736672473089</t>
+          <t>t-969977636670918656</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,7 +9033,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-621526313216536576</t>
+          <t>t-558428892898131968</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-621967424384925696</t>
+          <t>t-558596887519850496</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,20 +9059,20 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-676067082081976320</t>
+          <t>t-564676313139531776</t>
         </is>
       </c>
       <c r="B664" t="n">
         <v>1</v>
       </c>
       <c r="C664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-689784474884648961</t>
+          <t>t-564736068306878464</t>
         </is>
       </c>
       <c r="B665" t="n">
@@ -9085,11 +9085,11 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-712147646559879168</t>
+          <t>t-689731867570900992</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C666" t="n">
         <v>1</v>
@@ -9098,20 +9098,20 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-795674749028462592</t>
+          <t>t-703773712068116482</t>
         </is>
       </c>
       <c r="B667" t="n">
         <v>1</v>
       </c>
       <c r="C667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-523431319012139009</t>
+          <t>t-703855663269556224</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,11 +9124,11 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-780295387017949184</t>
+          <t>t-703940411761389571</t>
         </is>
       </c>
       <c r="B669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C669" t="n">
         <v>1</v>
@@ -9137,33 +9137,33 @@
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-744191847128436736</t>
+          <t>t-833843048253681665</t>
         </is>
       </c>
       <c r="B670" t="n">
         <v>1</v>
       </c>
       <c r="C670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-532101195737735168</t>
+          <t>t-834648744150892546</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-532807839664730113</t>
+          <t>t-919103523458969600</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-558428892898131968</t>
+          <t>t-534644762553229312</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-558596887519850496</t>
+          <t>t-535211715454332929</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,24 +9202,24 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-685036854010339328</t>
+          <t>t-535234909267578880</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-689731867570900992</t>
+          <t>t-535323782999977985</t>
         </is>
       </c>
       <c r="B676" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C676" t="n">
         <v>1</v>
@@ -9228,89 +9228,89 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-852718859765202945</t>
+          <t>t-536050657384333312</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-852739972473868290</t>
+          <t>t-536689861890035712</t>
         </is>
       </c>
       <c r="B678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C678" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-534644762553229312</t>
+          <t>t-550823263941574657</t>
         </is>
       </c>
       <c r="B679" t="n">
         <v>1</v>
       </c>
       <c r="C679" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-535211715454332929</t>
+          <t>t-935391382331588609</t>
         </is>
       </c>
       <c r="B680" t="n">
         <v>1</v>
       </c>
       <c r="C680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-535234909267578880</t>
+          <t>t-935397608851324931</t>
         </is>
       </c>
       <c r="B681" t="n">
         <v>1</v>
       </c>
       <c r="C681" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-535323782999977985</t>
+          <t>t-935407791757389824</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-536050657384333312</t>
+          <t>t-562992622130954243</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C683" t="n">
         <v>1</v>
@@ -9319,24 +9319,24 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-536689861890035712</t>
+          <t>t-636337860757483520</t>
         </is>
       </c>
       <c r="B684" t="n">
         <v>0</v>
       </c>
       <c r="C684" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-935391382331588609</t>
+          <t>t-709944298301628416</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C685" t="n">
         <v>1</v>
@@ -9345,20 +9345,20 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-935397608851324931</t>
+          <t>t-715026472285708288</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-935407791757389824</t>
+          <t>t-745418927845453825</t>
         </is>
       </c>
       <c r="B687" t="n">
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-562992622130954243</t>
+          <t>t-773077201063407617</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,11 +9384,11 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-928119470215847936</t>
+          <t>t-776553403992252416</t>
         </is>
       </c>
       <c r="B689" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C689" t="n">
         <v>1</v>
@@ -9397,20 +9397,20 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-859771332908777474</t>
+          <t>t-776953291594866688</t>
         </is>
       </c>
       <c r="B690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-964122358905823232</t>
+          <t>t-776996787567464448</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-1060932314279170048</t>
+          <t>t-777018247778631680</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-797685704197214209</t>
+          <t>t-777139839556648960</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,7 +9449,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-797694645522137093</t>
+          <t>t-777163982893223936</t>
         </is>
       </c>
       <c r="B694" t="n">
@@ -9462,33 +9462,33 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-798670554630762496</t>
+          <t>t-577656940282540032</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-960667988255850496</t>
+          <t>t-692022677649797120</t>
         </is>
       </c>
       <c r="B696" t="n">
         <v>1</v>
       </c>
       <c r="C696" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-557074144505114625</t>
+          <t>t-797685704197214209</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,20 +9501,20 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-950631505486737408</t>
+          <t>t-797694645522137093</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-950698684148142080</t>
+          <t>t-798670554630762496</t>
         </is>
       </c>
       <c r="B699" t="n">
@@ -9527,7 +9527,7 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-564756286211100672</t>
+          <t>t-820399938416754688</t>
         </is>
       </c>
       <c r="B700" t="n">
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-565303060420112386</t>
+          <t>t-960667988255850496</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,11 +9553,11 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-565336619021262848</t>
+          <t>t-857803058968838144</t>
         </is>
       </c>
       <c r="B702" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C702" t="n">
         <v>1</v>
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-704474821959163905</t>
+          <t>t-857867986841079808</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,11 +9579,11 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-940363500475465728</t>
+          <t>t-550867696435200000</t>
         </is>
       </c>
       <c r="B704" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C704" t="n">
         <v>1</v>
@@ -9592,11 +9592,11 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-561946682707812352</t>
+          <t>t-550870336418234368</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C705" t="n">
         <v>1</v>
@@ -9605,11 +9605,11 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-1016952321333497856</t>
+          <t>t-550963305326862336</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
         <v>1</v>
@@ -9618,7 +9618,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-563242661562576896</t>
+          <t>t-551099005388599297</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,11 +9631,11 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-564304402253508608</t>
+          <t>t-551184362054500352</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C708" t="n">
         <v>1</v>
@@ -9644,11 +9644,11 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-580384120221487104</t>
+          <t>t-558523740888109056</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C709" t="n">
         <v>1</v>
@@ -9657,11 +9657,11 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-698712295900229633</t>
+          <t>t-826783220507168768</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C710" t="n">
         <v>1</v>
@@ -9670,7 +9670,7 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-566151747232489472</t>
+          <t>t-946271534502395905</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,24 +9683,24 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-579242361768677376</t>
+          <t>t-950566545595551745</t>
         </is>
       </c>
       <c r="B712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C712" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-729241413867556864</t>
+          <t>t-954254379967660032</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C713" t="n">
         <v>1</v>
@@ -9709,7 +9709,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-777104599379423233</t>
+          <t>t-563225583400648704</t>
         </is>
       </c>
       <c r="B714" t="n">
@@ -9722,7 +9722,7 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-777106884058763264</t>
+          <t>t-978443713629204480</t>
         </is>
       </c>
       <c r="B715" t="n">
@@ -9735,24 +9735,24 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-998772384076320768</t>
+          <t>t-978559522900910080</t>
         </is>
       </c>
       <c r="B716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C716" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-998825906733920257</t>
+          <t>t-1004628011856089090</t>
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C717" t="n">
         <v>1</v>
@@ -9761,7 +9761,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-737450472194211841</t>
+          <t>t-566151747232489472</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,7 +9774,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-737498199435317252</t>
+          <t>t-753509017096364033</t>
         </is>
       </c>
       <c r="B719" t="n">
@@ -9787,24 +9787,24 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-829258775257346048</t>
+          <t>t-998772384076320768</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C720" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-829280839464845312</t>
+          <t>t-998825906733920257</t>
         </is>
       </c>
       <c r="B721" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C721" t="n">
         <v>1</v>
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-829291437292396544</t>
+          <t>t-568062001399746560</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,11 +9826,11 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-829294998201970688</t>
+          <t>t-572370799971053568</t>
         </is>
       </c>
       <c r="B723" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C723" t="n">
         <v>1</v>
@@ -9839,20 +9839,20 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-829512724761620480</t>
+          <t>t-863292024522395649</t>
         </is>
       </c>
       <c r="B724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C724" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-733197295139741697</t>
+          <t>t-935417453286326277</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-760724447745699841</t>
+          <t>t-640851401892065280</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,11 +9878,11 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-833862725059031044</t>
+          <t>t-877794875583934464</t>
         </is>
       </c>
       <c r="B727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C727" t="n">
         <v>1</v>
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-833912149630078976</t>
+          <t>t-780951872647475200</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-935334721793306624</t>
+          <t>t-946177924222222336</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-935382314166693889</t>
+          <t>t-935334721793306624</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,13 +9930,26 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
+          <t>t-935382314166693889</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>1</v>
+      </c>
+      <c r="C731" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
           <t>t-940573035752386560</t>
         </is>
       </c>
-      <c r="B731" t="n">
-        <v>1</v>
-      </c>
-      <c r="C731" t="n">
+      <c r="B732" t="n">
+        <v>1</v>
+      </c>
+      <c r="C732" t="n">
         <v>1</v>
       </c>
     </row>
